--- a/Excel/EposTileExp.xlsx
+++ b/Excel/EposTileExp.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C0A008-AA34-4DEC-8FDE-DD443F59419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8720E7D1-6411-4AC8-AAC6-693CD3B3FD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -398,18 +407,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -417,105 +426,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A19" xr:uid="{44107F58-C971-4B6F-B236-57943ECEF57B}">
-      <formula1>"Easy, Normal, Danger, Hard, Nightmare, Disaster"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>